--- a/superAndes-jdo/data/A_CLIENTE.xlsx
+++ b/superAndes-jdo/data/A_CLIENTE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP Inc\Desktop\U\SisTrans\Iteracion 2\sistrans\superAndes-jdo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7BCB8DE-00F3-488E-A681-21B37FCF3716}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EBE0BBB-9104-4E62-8F2C-D212C313694E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6220,7 +6220,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="A979" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -6249,7 +6249,7 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(1,10)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -6261,7 +6261,7 @@
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C66" ca="1" si="0">RANDBETWEEN(1,10)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -6273,7 +6273,7 @@
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -6285,7 +6285,7 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -6297,7 +6297,7 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -6321,7 +6321,7 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -6333,7 +6333,7 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -6345,7 +6345,7 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -6357,7 +6357,7 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -6369,7 +6369,7 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -6381,7 +6381,7 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -6405,7 +6405,7 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -6417,7 +6417,7 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -6429,7 +6429,7 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -6441,7 +6441,7 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -6453,7 +6453,7 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -6465,7 +6465,7 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -6477,7 +6477,7 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -6489,7 +6489,7 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -6501,7 +6501,7 @@
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -6513,7 +6513,7 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -6525,7 +6525,7 @@
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -6537,7 +6537,7 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -6549,7 +6549,7 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -6561,7 +6561,7 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -6573,7 +6573,7 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -6585,7 +6585,7 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -6609,7 +6609,7 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -6621,7 +6621,7 @@
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
@@ -6633,7 +6633,7 @@
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -6657,7 +6657,7 @@
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
@@ -6669,7 +6669,7 @@
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -6681,7 +6681,7 @@
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -6693,7 +6693,7 @@
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -6705,7 +6705,7 @@
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -6717,7 +6717,7 @@
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -6729,7 +6729,7 @@
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -6741,7 +6741,7 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -6753,7 +6753,7 @@
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -6777,7 +6777,7 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -6801,7 +6801,7 @@
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -6813,7 +6813,7 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -6825,7 +6825,7 @@
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -6849,7 +6849,7 @@
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -6861,7 +6861,7 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -6873,7 +6873,7 @@
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -6897,7 +6897,7 @@
       </c>
       <c r="C56">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -6921,7 +6921,7 @@
       </c>
       <c r="C58">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -6933,7 +6933,7 @@
       </c>
       <c r="C59">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -6945,7 +6945,7 @@
       </c>
       <c r="C60">
         <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -6957,7 +6957,7 @@
       </c>
       <c r="C61">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -6969,7 +6969,7 @@
       </c>
       <c r="C62">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -6993,7 +6993,7 @@
       </c>
       <c r="C64">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -7005,7 +7005,7 @@
       </c>
       <c r="C65">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -7017,7 +7017,7 @@
       </c>
       <c r="C66">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -7029,7 +7029,7 @@
       </c>
       <c r="C67">
         <f t="shared" ref="C67:C130" ca="1" si="1">RANDBETWEEN(1,10)</f>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -7041,7 +7041,7 @@
       </c>
       <c r="C68">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -7053,7 +7053,7 @@
       </c>
       <c r="C69">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -7065,7 +7065,7 @@
       </c>
       <c r="C70">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -7077,7 +7077,7 @@
       </c>
       <c r="C71">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -7089,7 +7089,7 @@
       </c>
       <c r="C72">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -7101,7 +7101,7 @@
       </c>
       <c r="C73">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -7125,7 +7125,7 @@
       </c>
       <c r="C75">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -7137,7 +7137,7 @@
       </c>
       <c r="C76">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -7149,7 +7149,7 @@
       </c>
       <c r="C77">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -7161,7 +7161,7 @@
       </c>
       <c r="C78">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -7173,7 +7173,7 @@
       </c>
       <c r="C79">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -7185,7 +7185,7 @@
       </c>
       <c r="C80">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
@@ -7197,7 +7197,7 @@
       </c>
       <c r="C81">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
@@ -7209,7 +7209,7 @@
       </c>
       <c r="C82">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
@@ -7221,7 +7221,7 @@
       </c>
       <c r="C83">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
@@ -7233,7 +7233,7 @@
       </c>
       <c r="C84">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -7257,7 +7257,7 @@
       </c>
       <c r="C86">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -7269,7 +7269,7 @@
       </c>
       <c r="C87">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -7281,7 +7281,7 @@
       </c>
       <c r="C88">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -7293,7 +7293,7 @@
       </c>
       <c r="C89">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -7305,7 +7305,7 @@
       </c>
       <c r="C90">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -7317,7 +7317,7 @@
       </c>
       <c r="C91">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -7329,7 +7329,7 @@
       </c>
       <c r="C92">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -7341,7 +7341,7 @@
       </c>
       <c r="C93">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -7353,7 +7353,7 @@
       </c>
       <c r="C94">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -7365,7 +7365,7 @@
       </c>
       <c r="C95">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -7377,7 +7377,7 @@
       </c>
       <c r="C96">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -7389,7 +7389,7 @@
       </c>
       <c r="C97">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -7401,7 +7401,7 @@
       </c>
       <c r="C98">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -7413,7 +7413,7 @@
       </c>
       <c r="C99">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -7425,7 +7425,7 @@
       </c>
       <c r="C100">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -7437,7 +7437,7 @@
       </c>
       <c r="C101">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -7449,7 +7449,7 @@
       </c>
       <c r="C102">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -7461,7 +7461,7 @@
       </c>
       <c r="C103">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -7473,7 +7473,7 @@
       </c>
       <c r="C104">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -7485,7 +7485,7 @@
       </c>
       <c r="C105">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
@@ -7497,7 +7497,7 @@
       </c>
       <c r="C106">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -7509,7 +7509,7 @@
       </c>
       <c r="C107">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -7521,7 +7521,7 @@
       </c>
       <c r="C108">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -7533,7 +7533,7 @@
       </c>
       <c r="C109">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -7545,7 +7545,7 @@
       </c>
       <c r="C110">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
@@ -7569,7 +7569,7 @@
       </c>
       <c r="C112">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -7581,7 +7581,7 @@
       </c>
       <c r="C113">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -7605,7 +7605,7 @@
       </c>
       <c r="C115">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -7617,7 +7617,7 @@
       </c>
       <c r="C116">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
@@ -7629,7 +7629,7 @@
       </c>
       <c r="C117">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -7641,7 +7641,7 @@
       </c>
       <c r="C118">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -7653,7 +7653,7 @@
       </c>
       <c r="C119">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -7665,7 +7665,7 @@
       </c>
       <c r="C120">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -7677,7 +7677,7 @@
       </c>
       <c r="C121">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
@@ -7689,7 +7689,7 @@
       </c>
       <c r="C122">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -7701,7 +7701,7 @@
       </c>
       <c r="C123">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -7713,7 +7713,7 @@
       </c>
       <c r="C124">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -7725,7 +7725,7 @@
       </c>
       <c r="C125">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -7737,7 +7737,7 @@
       </c>
       <c r="C126">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -7749,7 +7749,7 @@
       </c>
       <c r="C127">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
@@ -7761,7 +7761,7 @@
       </c>
       <c r="C128">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
@@ -7773,7 +7773,7 @@
       </c>
       <c r="C129">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
@@ -7785,7 +7785,7 @@
       </c>
       <c r="C130">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -7797,7 +7797,7 @@
       </c>
       <c r="C131">
         <f t="shared" ref="C131:C194" ca="1" si="2">RANDBETWEEN(1,10)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
@@ -7809,7 +7809,7 @@
       </c>
       <c r="C132">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
@@ -7821,7 +7821,7 @@
       </c>
       <c r="C133">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -7833,7 +7833,7 @@
       </c>
       <c r="C134">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -7845,7 +7845,7 @@
       </c>
       <c r="C135">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
@@ -7857,7 +7857,7 @@
       </c>
       <c r="C136">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
@@ -7869,7 +7869,7 @@
       </c>
       <c r="C137">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
@@ -7881,7 +7881,7 @@
       </c>
       <c r="C138">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
@@ -7893,7 +7893,7 @@
       </c>
       <c r="C139">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
@@ -7905,7 +7905,7 @@
       </c>
       <c r="C140">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
@@ -7917,7 +7917,7 @@
       </c>
       <c r="C141">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
@@ -7929,7 +7929,7 @@
       </c>
       <c r="C142">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
@@ -7941,7 +7941,7 @@
       </c>
       <c r="C143">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
@@ -7953,7 +7953,7 @@
       </c>
       <c r="C144">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
@@ -7977,7 +7977,7 @@
       </c>
       <c r="C146">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
@@ -8001,7 +8001,7 @@
       </c>
       <c r="C148">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
@@ -8013,7 +8013,7 @@
       </c>
       <c r="C149">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
@@ -8025,7 +8025,7 @@
       </c>
       <c r="C150">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
@@ -8037,7 +8037,7 @@
       </c>
       <c r="C151">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
@@ -8049,7 +8049,7 @@
       </c>
       <c r="C152">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
@@ -8061,7 +8061,7 @@
       </c>
       <c r="C153">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
@@ -8073,7 +8073,7 @@
       </c>
       <c r="C154">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
@@ -8085,7 +8085,7 @@
       </c>
       <c r="C155">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
@@ -8097,7 +8097,7 @@
       </c>
       <c r="C156">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
@@ -8109,7 +8109,7 @@
       </c>
       <c r="C157">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
@@ -8121,7 +8121,7 @@
       </c>
       <c r="C158">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
@@ -8133,7 +8133,7 @@
       </c>
       <c r="C159">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
@@ -8145,7 +8145,7 @@
       </c>
       <c r="C160">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
@@ -8157,7 +8157,7 @@
       </c>
       <c r="C161">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
@@ -8169,7 +8169,7 @@
       </c>
       <c r="C162">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
@@ -8181,7 +8181,7 @@
       </c>
       <c r="C163">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
@@ -8193,7 +8193,7 @@
       </c>
       <c r="C164">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
@@ -8205,7 +8205,7 @@
       </c>
       <c r="C165">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
@@ -8217,7 +8217,7 @@
       </c>
       <c r="C166">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
@@ -8229,7 +8229,7 @@
       </c>
       <c r="C167">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
@@ -8241,7 +8241,7 @@
       </c>
       <c r="C168">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
@@ -8253,7 +8253,7 @@
       </c>
       <c r="C169">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
@@ -8277,7 +8277,7 @@
       </c>
       <c r="C171">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
@@ -8301,7 +8301,7 @@
       </c>
       <c r="C173">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
@@ -8313,7 +8313,7 @@
       </c>
       <c r="C174">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
@@ -8325,7 +8325,7 @@
       </c>
       <c r="C175">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
@@ -8337,7 +8337,7 @@
       </c>
       <c r="C176">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
@@ -8349,7 +8349,7 @@
       </c>
       <c r="C177">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
@@ -8373,7 +8373,7 @@
       </c>
       <c r="C179">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
@@ -8385,7 +8385,7 @@
       </c>
       <c r="C180">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
@@ -8397,7 +8397,7 @@
       </c>
       <c r="C181">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
@@ -8409,7 +8409,7 @@
       </c>
       <c r="C182">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
@@ -8421,7 +8421,7 @@
       </c>
       <c r="C183">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
@@ -8433,7 +8433,7 @@
       </c>
       <c r="C184">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
@@ -8445,7 +8445,7 @@
       </c>
       <c r="C185">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
@@ -8457,7 +8457,7 @@
       </c>
       <c r="C186">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
@@ -8469,7 +8469,7 @@
       </c>
       <c r="C187">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
@@ -8481,7 +8481,7 @@
       </c>
       <c r="C188">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
@@ -8493,7 +8493,7 @@
       </c>
       <c r="C189">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
@@ -8505,7 +8505,7 @@
       </c>
       <c r="C190">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
@@ -8517,7 +8517,7 @@
       </c>
       <c r="C191">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
@@ -8529,7 +8529,7 @@
       </c>
       <c r="C192">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
@@ -8541,7 +8541,7 @@
       </c>
       <c r="C193">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
@@ -8565,7 +8565,7 @@
       </c>
       <c r="C195">
         <f t="shared" ref="C195:C258" ca="1" si="3">RANDBETWEEN(1,10)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
@@ -8577,7 +8577,7 @@
       </c>
       <c r="C196">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
@@ -8589,7 +8589,7 @@
       </c>
       <c r="C197">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
@@ -8601,7 +8601,7 @@
       </c>
       <c r="C198">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
@@ -8625,7 +8625,7 @@
       </c>
       <c r="C200">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
@@ -8661,7 +8661,7 @@
       </c>
       <c r="C203">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
@@ -8673,7 +8673,7 @@
       </c>
       <c r="C204">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
@@ -8697,7 +8697,7 @@
       </c>
       <c r="C206">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
@@ -8709,7 +8709,7 @@
       </c>
       <c r="C207">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
@@ -8721,7 +8721,7 @@
       </c>
       <c r="C208">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
@@ -8733,7 +8733,7 @@
       </c>
       <c r="C209">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
@@ -8745,7 +8745,7 @@
       </c>
       <c r="C210">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
@@ -8757,7 +8757,7 @@
       </c>
       <c r="C211">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
@@ -8769,7 +8769,7 @@
       </c>
       <c r="C212">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
@@ -8793,7 +8793,7 @@
       </c>
       <c r="C214">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
@@ -8805,7 +8805,7 @@
       </c>
       <c r="C215">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
@@ -8817,7 +8817,7 @@
       </c>
       <c r="C216">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
@@ -8829,7 +8829,7 @@
       </c>
       <c r="C217">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
@@ -8853,7 +8853,7 @@
       </c>
       <c r="C219">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
@@ -8865,7 +8865,7 @@
       </c>
       <c r="C220">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
@@ -8877,7 +8877,7 @@
       </c>
       <c r="C221">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
@@ -8889,7 +8889,7 @@
       </c>
       <c r="C222">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
@@ -8913,7 +8913,7 @@
       </c>
       <c r="C224">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
@@ -8925,7 +8925,7 @@
       </c>
       <c r="C225">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
@@ -8937,7 +8937,7 @@
       </c>
       <c r="C226">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
@@ -8949,7 +8949,7 @@
       </c>
       <c r="C227">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
@@ -8961,7 +8961,7 @@
       </c>
       <c r="C228">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
@@ -8973,7 +8973,7 @@
       </c>
       <c r="C229">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
@@ -8985,7 +8985,7 @@
       </c>
       <c r="C230">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
@@ -8997,7 +8997,7 @@
       </c>
       <c r="C231">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
@@ -9021,7 +9021,7 @@
       </c>
       <c r="C233">
         <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
@@ -9033,7 +9033,7 @@
       </c>
       <c r="C234">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
@@ -9045,7 +9045,7 @@
       </c>
       <c r="C235">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
@@ -9057,7 +9057,7 @@
       </c>
       <c r="C236">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
@@ -9069,7 +9069,7 @@
       </c>
       <c r="C237">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
@@ -9081,7 +9081,7 @@
       </c>
       <c r="C238">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
@@ -9093,7 +9093,7 @@
       </c>
       <c r="C239">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
@@ -9105,7 +9105,7 @@
       </c>
       <c r="C240">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
@@ -9117,7 +9117,7 @@
       </c>
       <c r="C241">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
@@ -9129,7 +9129,7 @@
       </c>
       <c r="C242">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
@@ -9141,7 +9141,7 @@
       </c>
       <c r="C243">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
@@ -9153,7 +9153,7 @@
       </c>
       <c r="C244">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
@@ -9165,7 +9165,7 @@
       </c>
       <c r="C245">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
@@ -9177,7 +9177,7 @@
       </c>
       <c r="C246">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
@@ -9189,7 +9189,7 @@
       </c>
       <c r="C247">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
@@ -9201,7 +9201,7 @@
       </c>
       <c r="C248">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
@@ -9213,7 +9213,7 @@
       </c>
       <c r="C249">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
@@ -9225,7 +9225,7 @@
       </c>
       <c r="C250">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
@@ -9237,7 +9237,7 @@
       </c>
       <c r="C251">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
@@ -9249,7 +9249,7 @@
       </c>
       <c r="C252">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
@@ -9261,7 +9261,7 @@
       </c>
       <c r="C253">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
@@ -9273,7 +9273,7 @@
       </c>
       <c r="C254">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
@@ -9285,7 +9285,7 @@
       </c>
       <c r="C255">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
@@ -9297,7 +9297,7 @@
       </c>
       <c r="C256">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
@@ -9309,7 +9309,7 @@
       </c>
       <c r="C257">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
@@ -9333,7 +9333,7 @@
       </c>
       <c r="C259">
         <f t="shared" ref="C259:C322" ca="1" si="4">RANDBETWEEN(1,10)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
@@ -9345,7 +9345,7 @@
       </c>
       <c r="C260">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
@@ -9357,7 +9357,7 @@
       </c>
       <c r="C261">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
@@ -9369,7 +9369,7 @@
       </c>
       <c r="C262">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
@@ -9381,7 +9381,7 @@
       </c>
       <c r="C263">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
@@ -9393,7 +9393,7 @@
       </c>
       <c r="C264">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
@@ -9405,7 +9405,7 @@
       </c>
       <c r="C265">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
@@ -9417,7 +9417,7 @@
       </c>
       <c r="C266">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
@@ -9429,7 +9429,7 @@
       </c>
       <c r="C267">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
@@ -9441,7 +9441,7 @@
       </c>
       <c r="C268">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
@@ -9453,7 +9453,7 @@
       </c>
       <c r="C269">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
@@ -9465,7 +9465,7 @@
       </c>
       <c r="C270">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
@@ -9501,7 +9501,7 @@
       </c>
       <c r="C273">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
@@ -9513,7 +9513,7 @@
       </c>
       <c r="C274">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
@@ -9525,7 +9525,7 @@
       </c>
       <c r="C275">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
@@ -9537,7 +9537,7 @@
       </c>
       <c r="C276">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
@@ -9549,7 +9549,7 @@
       </c>
       <c r="C277">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
@@ -9561,7 +9561,7 @@
       </c>
       <c r="C278">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
@@ -9573,7 +9573,7 @@
       </c>
       <c r="C279">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
@@ -9585,7 +9585,7 @@
       </c>
       <c r="C280">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
@@ -9597,7 +9597,7 @@
       </c>
       <c r="C281">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
@@ -9609,7 +9609,7 @@
       </c>
       <c r="C282">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
@@ -9621,7 +9621,7 @@
       </c>
       <c r="C283">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
@@ -9633,7 +9633,7 @@
       </c>
       <c r="C284">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
@@ -9645,7 +9645,7 @@
       </c>
       <c r="C285">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
@@ -9657,7 +9657,7 @@
       </c>
       <c r="C286">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
@@ -9669,7 +9669,7 @@
       </c>
       <c r="C287">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
@@ -9681,7 +9681,7 @@
       </c>
       <c r="C288">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
@@ -9705,7 +9705,7 @@
       </c>
       <c r="C290">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
@@ -9717,7 +9717,7 @@
       </c>
       <c r="C291">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
@@ -9729,7 +9729,7 @@
       </c>
       <c r="C292">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
@@ -9741,7 +9741,7 @@
       </c>
       <c r="C293">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
@@ -9753,7 +9753,7 @@
       </c>
       <c r="C294">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
@@ -9765,7 +9765,7 @@
       </c>
       <c r="C295">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
@@ -9777,7 +9777,7 @@
       </c>
       <c r="C296">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
@@ -9789,7 +9789,7 @@
       </c>
       <c r="C297">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
@@ -9801,7 +9801,7 @@
       </c>
       <c r="C298">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
@@ -9813,7 +9813,7 @@
       </c>
       <c r="C299">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
@@ -9825,7 +9825,7 @@
       </c>
       <c r="C300">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
@@ -9837,7 +9837,7 @@
       </c>
       <c r="C301">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
@@ -9849,7 +9849,7 @@
       </c>
       <c r="C302">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
@@ -9861,7 +9861,7 @@
       </c>
       <c r="C303">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
@@ -9873,7 +9873,7 @@
       </c>
       <c r="C304">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
@@ -9885,7 +9885,7 @@
       </c>
       <c r="C305">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
@@ -9897,7 +9897,7 @@
       </c>
       <c r="C306">
         <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
@@ -9909,7 +9909,7 @@
       </c>
       <c r="C307">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
@@ -9933,7 +9933,7 @@
       </c>
       <c r="C309">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
@@ -9945,7 +9945,7 @@
       </c>
       <c r="C310">
         <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
@@ -9957,7 +9957,7 @@
       </c>
       <c r="C311">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
@@ -9969,7 +9969,7 @@
       </c>
       <c r="C312">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
@@ -9981,7 +9981,7 @@
       </c>
       <c r="C313">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
@@ -9993,7 +9993,7 @@
       </c>
       <c r="C314">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
@@ -10005,7 +10005,7 @@
       </c>
       <c r="C315">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
@@ -10017,7 +10017,7 @@
       </c>
       <c r="C316">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
@@ -10029,7 +10029,7 @@
       </c>
       <c r="C317">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
@@ -10041,7 +10041,7 @@
       </c>
       <c r="C318">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
@@ -10053,7 +10053,7 @@
       </c>
       <c r="C319">
         <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
@@ -10065,7 +10065,7 @@
       </c>
       <c r="C320">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
@@ -10077,7 +10077,7 @@
       </c>
       <c r="C321">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
@@ -10089,7 +10089,7 @@
       </c>
       <c r="C322">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
@@ -10101,7 +10101,7 @@
       </c>
       <c r="C323">
         <f t="shared" ref="C323:C386" ca="1" si="5">RANDBETWEEN(1,10)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
@@ -10113,7 +10113,7 @@
       </c>
       <c r="C324">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
@@ -10125,7 +10125,7 @@
       </c>
       <c r="C325">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
@@ -10137,7 +10137,7 @@
       </c>
       <c r="C326">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
@@ -10161,7 +10161,7 @@
       </c>
       <c r="C328">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
@@ -10173,7 +10173,7 @@
       </c>
       <c r="C329">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
@@ -10185,7 +10185,7 @@
       </c>
       <c r="C330">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
@@ -10197,7 +10197,7 @@
       </c>
       <c r="C331">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
@@ -10209,7 +10209,7 @@
       </c>
       <c r="C332">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
@@ -10221,7 +10221,7 @@
       </c>
       <c r="C333">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
@@ -10233,7 +10233,7 @@
       </c>
       <c r="C334">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
@@ -10245,7 +10245,7 @@
       </c>
       <c r="C335">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
@@ -10257,7 +10257,7 @@
       </c>
       <c r="C336">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
@@ -10269,7 +10269,7 @@
       </c>
       <c r="C337">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
@@ -10293,7 +10293,7 @@
       </c>
       <c r="C339">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
@@ -10305,7 +10305,7 @@
       </c>
       <c r="C340">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
@@ -10317,7 +10317,7 @@
       </c>
       <c r="C341">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
@@ -10329,7 +10329,7 @@
       </c>
       <c r="C342">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
@@ -10341,7 +10341,7 @@
       </c>
       <c r="C343">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
@@ -10353,7 +10353,7 @@
       </c>
       <c r="C344">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
@@ -10365,7 +10365,7 @@
       </c>
       <c r="C345">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
@@ -10377,7 +10377,7 @@
       </c>
       <c r="C346">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
@@ -10389,7 +10389,7 @@
       </c>
       <c r="C347">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
@@ -10401,7 +10401,7 @@
       </c>
       <c r="C348">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
@@ -10413,7 +10413,7 @@
       </c>
       <c r="C349">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
@@ -10425,7 +10425,7 @@
       </c>
       <c r="C350">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
@@ -10437,7 +10437,7 @@
       </c>
       <c r="C351">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
@@ -10449,7 +10449,7 @@
       </c>
       <c r="C352">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
@@ -10461,7 +10461,7 @@
       </c>
       <c r="C353">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
@@ -10485,7 +10485,7 @@
       </c>
       <c r="C355">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
@@ -10497,7 +10497,7 @@
       </c>
       <c r="C356">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
@@ -10509,7 +10509,7 @@
       </c>
       <c r="C357">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
@@ -10521,7 +10521,7 @@
       </c>
       <c r="C358">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
@@ -10533,7 +10533,7 @@
       </c>
       <c r="C359">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
@@ -10545,7 +10545,7 @@
       </c>
       <c r="C360">
         <f t="shared" ca="1" si="5"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
@@ -10569,7 +10569,7 @@
       </c>
       <c r="C362">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
@@ -10581,7 +10581,7 @@
       </c>
       <c r="C363">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
@@ -10605,7 +10605,7 @@
       </c>
       <c r="C365">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
@@ -10617,7 +10617,7 @@
       </c>
       <c r="C366">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
@@ -10629,7 +10629,7 @@
       </c>
       <c r="C367">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
@@ -10641,7 +10641,7 @@
       </c>
       <c r="C368">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
@@ -10653,7 +10653,7 @@
       </c>
       <c r="C369">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
@@ -10665,7 +10665,7 @@
       </c>
       <c r="C370">
         <f t="shared" ca="1" si="5"/>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
@@ -10677,7 +10677,7 @@
       </c>
       <c r="C371">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
@@ -10689,7 +10689,7 @@
       </c>
       <c r="C372">
         <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
@@ -10701,7 +10701,7 @@
       </c>
       <c r="C373">
         <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
@@ -10713,7 +10713,7 @@
       </c>
       <c r="C374">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
@@ -10725,7 +10725,7 @@
       </c>
       <c r="C375">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
@@ -10737,7 +10737,7 @@
       </c>
       <c r="C376">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
@@ -10749,7 +10749,7 @@
       </c>
       <c r="C377">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
@@ -10761,7 +10761,7 @@
       </c>
       <c r="C378">
         <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
@@ -10773,7 +10773,7 @@
       </c>
       <c r="C379">
         <f t="shared" ca="1" si="5"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
@@ -10785,7 +10785,7 @@
       </c>
       <c r="C380">
         <f t="shared" ca="1" si="5"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
@@ -10821,7 +10821,7 @@
       </c>
       <c r="C383">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.2">
@@ -10833,7 +10833,7 @@
       </c>
       <c r="C384">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.2">
@@ -10845,7 +10845,7 @@
       </c>
       <c r="C385">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.2">
@@ -10857,7 +10857,7 @@
       </c>
       <c r="C386">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.2">
@@ -10869,7 +10869,7 @@
       </c>
       <c r="C387">
         <f t="shared" ref="C387:C450" ca="1" si="6">RANDBETWEEN(1,10)</f>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
@@ -10881,7 +10881,7 @@
       </c>
       <c r="C388">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.2">
@@ -10893,7 +10893,7 @@
       </c>
       <c r="C389">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.2">
@@ -10905,7 +10905,7 @@
       </c>
       <c r="C390">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.2">
@@ -10917,7 +10917,7 @@
       </c>
       <c r="C391">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.2">
@@ -10929,7 +10929,7 @@
       </c>
       <c r="C392">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
@@ -10941,7 +10941,7 @@
       </c>
       <c r="C393">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
@@ -10953,7 +10953,7 @@
       </c>
       <c r="C394">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
@@ -10965,7 +10965,7 @@
       </c>
       <c r="C395">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.2">
@@ -10977,7 +10977,7 @@
       </c>
       <c r="C396">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
@@ -10989,7 +10989,7 @@
       </c>
       <c r="C397">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
@@ -11001,7 +11001,7 @@
       </c>
       <c r="C398">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.2">
@@ -11013,7 +11013,7 @@
       </c>
       <c r="C399">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.2">
@@ -11025,7 +11025,7 @@
       </c>
       <c r="C400">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.2">
@@ -11049,7 +11049,7 @@
       </c>
       <c r="C402">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.2">
@@ -11061,7 +11061,7 @@
       </c>
       <c r="C403">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.2">
@@ -11073,7 +11073,7 @@
       </c>
       <c r="C404">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.2">
@@ -11085,7 +11085,7 @@
       </c>
       <c r="C405">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.2">
@@ -11097,7 +11097,7 @@
       </c>
       <c r="C406">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.2">
@@ -11109,7 +11109,7 @@
       </c>
       <c r="C407">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.2">
@@ -11133,7 +11133,7 @@
       </c>
       <c r="C409">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.2">
@@ -11145,7 +11145,7 @@
       </c>
       <c r="C410">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.2">
@@ -11157,7 +11157,7 @@
       </c>
       <c r="C411">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.2">
@@ -11169,7 +11169,7 @@
       </c>
       <c r="C412">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.2">
@@ -11181,7 +11181,7 @@
       </c>
       <c r="C413">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.2">
@@ -11205,7 +11205,7 @@
       </c>
       <c r="C415">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.2">
@@ -11217,7 +11217,7 @@
       </c>
       <c r="C416">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.2">
@@ -11229,7 +11229,7 @@
       </c>
       <c r="C417">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.2">
@@ -11241,7 +11241,7 @@
       </c>
       <c r="C418">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.2">
@@ -11253,7 +11253,7 @@
       </c>
       <c r="C419">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.2">
@@ -11277,7 +11277,7 @@
       </c>
       <c r="C421">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.2">
@@ -11289,7 +11289,7 @@
       </c>
       <c r="C422">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.2">
@@ -11301,7 +11301,7 @@
       </c>
       <c r="C423">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.2">
@@ -11313,7 +11313,7 @@
       </c>
       <c r="C424">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="425" spans="1:3" x14ac:dyDescent="0.2">
@@ -11325,7 +11325,7 @@
       </c>
       <c r="C425">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.2">
@@ -11337,7 +11337,7 @@
       </c>
       <c r="C426">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.2">
@@ -11349,7 +11349,7 @@
       </c>
       <c r="C427">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.2">
@@ -11373,7 +11373,7 @@
       </c>
       <c r="C429">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.2">
@@ -11385,7 +11385,7 @@
       </c>
       <c r="C430">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.2">
@@ -11397,7 +11397,7 @@
       </c>
       <c r="C431">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.2">
@@ -11409,7 +11409,7 @@
       </c>
       <c r="C432">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.2">
@@ -11421,7 +11421,7 @@
       </c>
       <c r="C433">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:3" x14ac:dyDescent="0.2">
@@ -11433,7 +11433,7 @@
       </c>
       <c r="C434">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.2">
@@ -11445,7 +11445,7 @@
       </c>
       <c r="C435">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:3" x14ac:dyDescent="0.2">
@@ -11457,7 +11457,7 @@
       </c>
       <c r="C436">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.2">
@@ -11469,7 +11469,7 @@
       </c>
       <c r="C437">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.2">
@@ -11481,7 +11481,7 @@
       </c>
       <c r="C438">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.2">
@@ -11493,7 +11493,7 @@
       </c>
       <c r="C439">
         <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.2">
@@ -11505,7 +11505,7 @@
       </c>
       <c r="C440">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.2">
@@ -11517,7 +11517,7 @@
       </c>
       <c r="C441">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.2">
@@ -11529,7 +11529,7 @@
       </c>
       <c r="C442">
         <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.2">
@@ -11541,7 +11541,7 @@
       </c>
       <c r="C443">
         <f t="shared" ca="1" si="6"/>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="444" spans="1:3" x14ac:dyDescent="0.2">
@@ -11553,7 +11553,7 @@
       </c>
       <c r="C444">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.2">
@@ -11565,7 +11565,7 @@
       </c>
       <c r="C445">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.2">
@@ -11577,7 +11577,7 @@
       </c>
       <c r="C446">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.2">
@@ -11589,7 +11589,7 @@
       </c>
       <c r="C447">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.2">
@@ -11601,7 +11601,7 @@
       </c>
       <c r="C448">
         <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.2">
@@ -11613,7 +11613,7 @@
       </c>
       <c r="C449">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.2">
@@ -11625,7 +11625,7 @@
       </c>
       <c r="C450">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.2">
@@ -11637,7 +11637,7 @@
       </c>
       <c r="C451">
         <f t="shared" ref="C451:C514" ca="1" si="7">RANDBETWEEN(1,10)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.2">
@@ -11649,7 +11649,7 @@
       </c>
       <c r="C452">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.2">
@@ -11673,7 +11673,7 @@
       </c>
       <c r="C454">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.2">
@@ -11685,7 +11685,7 @@
       </c>
       <c r="C455">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.2">
@@ -11697,7 +11697,7 @@
       </c>
       <c r="C456">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.2">
@@ -11709,7 +11709,7 @@
       </c>
       <c r="C457">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.2">
@@ -11733,7 +11733,7 @@
       </c>
       <c r="C459">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.2">
@@ -11745,7 +11745,7 @@
       </c>
       <c r="C460">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.2">
@@ -11757,7 +11757,7 @@
       </c>
       <c r="C461">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.2">
@@ -11769,7 +11769,7 @@
       </c>
       <c r="C462">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.2">
@@ -11793,7 +11793,7 @@
       </c>
       <c r="C464">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.2">
@@ -11805,7 +11805,7 @@
       </c>
       <c r="C465">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.2">
@@ -11829,7 +11829,7 @@
       </c>
       <c r="C467">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.2">
@@ -11841,7 +11841,7 @@
       </c>
       <c r="C468">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.2">
@@ -11853,7 +11853,7 @@
       </c>
       <c r="C469">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.2">
@@ -11865,7 +11865,7 @@
       </c>
       <c r="C470">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.2">
@@ -11877,7 +11877,7 @@
       </c>
       <c r="C471">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.2">
@@ -11889,7 +11889,7 @@
       </c>
       <c r="C472">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.2">
@@ -11901,7 +11901,7 @@
       </c>
       <c r="C473">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.2">
@@ -11913,7 +11913,7 @@
       </c>
       <c r="C474">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.2">
@@ -11949,7 +11949,7 @@
       </c>
       <c r="C477">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.2">
@@ -11961,7 +11961,7 @@
       </c>
       <c r="C478">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.2">
@@ -11973,7 +11973,7 @@
       </c>
       <c r="C479">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.2">
@@ -11985,7 +11985,7 @@
       </c>
       <c r="C480">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.2">
@@ -11997,7 +11997,7 @@
       </c>
       <c r="C481">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.2">
@@ -12009,7 +12009,7 @@
       </c>
       <c r="C482">
         <f t="shared" ca="1" si="7"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.2">
@@ -12021,7 +12021,7 @@
       </c>
       <c r="C483">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.2">
@@ -12033,7 +12033,7 @@
       </c>
       <c r="C484">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.2">
@@ -12045,7 +12045,7 @@
       </c>
       <c r="C485">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.2">
@@ -12057,7 +12057,7 @@
       </c>
       <c r="C486">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.2">
@@ -12069,7 +12069,7 @@
       </c>
       <c r="C487">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.2">
@@ -12081,7 +12081,7 @@
       </c>
       <c r="C488">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.2">
@@ -12093,7 +12093,7 @@
       </c>
       <c r="C489">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.2">
@@ -12105,7 +12105,7 @@
       </c>
       <c r="C490">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.2">
@@ -12117,7 +12117,7 @@
       </c>
       <c r="C491">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
@@ -12129,7 +12129,7 @@
       </c>
       <c r="C492">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
@@ -12141,7 +12141,7 @@
       </c>
       <c r="C493">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.2">
@@ -12165,7 +12165,7 @@
       </c>
       <c r="C495">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
@@ -12177,7 +12177,7 @@
       </c>
       <c r="C496">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.2">
@@ -12201,7 +12201,7 @@
       </c>
       <c r="C498">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.2">
@@ -12213,7 +12213,7 @@
       </c>
       <c r="C499">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.2">
@@ -12225,7 +12225,7 @@
       </c>
       <c r="C500">
         <f t="shared" ca="1" si="7"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.2">
@@ -12237,7 +12237,7 @@
       </c>
       <c r="C501">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.2">
@@ -12249,7 +12249,7 @@
       </c>
       <c r="C502">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.2">
@@ -12261,7 +12261,7 @@
       </c>
       <c r="C503">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.2">
@@ -12273,7 +12273,7 @@
       </c>
       <c r="C504">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.2">
@@ -12285,7 +12285,7 @@
       </c>
       <c r="C505">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.2">
@@ -12297,7 +12297,7 @@
       </c>
       <c r="C506">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.2">
@@ -12309,7 +12309,7 @@
       </c>
       <c r="C507">
         <f t="shared" ca="1" si="7"/>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.2">
@@ -12321,7 +12321,7 @@
       </c>
       <c r="C508">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.2">
@@ -12333,7 +12333,7 @@
       </c>
       <c r="C509">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.2">
@@ -12345,7 +12345,7 @@
       </c>
       <c r="C510">
         <f t="shared" ca="1" si="7"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.2">
@@ -12357,7 +12357,7 @@
       </c>
       <c r="C511">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.2">
@@ -12369,7 +12369,7 @@
       </c>
       <c r="C512">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.2">
@@ -12381,7 +12381,7 @@
       </c>
       <c r="C513">
         <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.2">
@@ -12393,7 +12393,7 @@
       </c>
       <c r="C514">
         <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.2">
@@ -12405,7 +12405,7 @@
       </c>
       <c r="C515">
         <f t="shared" ref="C515:C578" ca="1" si="8">RANDBETWEEN(1,10)</f>
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.2">
@@ -12417,7 +12417,7 @@
       </c>
       <c r="C516">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.2">
@@ -12429,7 +12429,7 @@
       </c>
       <c r="C517">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
@@ -12441,7 +12441,7 @@
       </c>
       <c r="C518">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.2">
@@ -12453,7 +12453,7 @@
       </c>
       <c r="C519">
         <f t="shared" ca="1" si="8"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
@@ -12465,7 +12465,7 @@
       </c>
       <c r="C520">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
@@ -12477,7 +12477,7 @@
       </c>
       <c r="C521">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
@@ -12489,7 +12489,7 @@
       </c>
       <c r="C522">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
@@ -12501,7 +12501,7 @@
       </c>
       <c r="C523">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.2">
@@ -12513,7 +12513,7 @@
       </c>
       <c r="C524">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
@@ -12525,7 +12525,7 @@
       </c>
       <c r="C525">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
@@ -12537,7 +12537,7 @@
       </c>
       <c r="C526">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
@@ -12549,7 +12549,7 @@
       </c>
       <c r="C527">
         <f t="shared" ca="1" si="8"/>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
@@ -12561,7 +12561,7 @@
       </c>
       <c r="C528">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.2">
@@ -12573,7 +12573,7 @@
       </c>
       <c r="C529">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.2">
@@ -12585,7 +12585,7 @@
       </c>
       <c r="C530">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.2">
@@ -12597,7 +12597,7 @@
       </c>
       <c r="C531">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.2">
@@ -12609,7 +12609,7 @@
       </c>
       <c r="C532">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.2">
@@ -12621,7 +12621,7 @@
       </c>
       <c r="C533">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
@@ -12633,7 +12633,7 @@
       </c>
       <c r="C534">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
@@ -12645,7 +12645,7 @@
       </c>
       <c r="C535">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
@@ -12657,7 +12657,7 @@
       </c>
       <c r="C536">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
@@ -12669,7 +12669,7 @@
       </c>
       <c r="C537">
         <f t="shared" ca="1" si="8"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.2">
@@ -12693,7 +12693,7 @@
       </c>
       <c r="C539">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.2">
@@ -12705,7 +12705,7 @@
       </c>
       <c r="C540">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.2">
@@ -12717,7 +12717,7 @@
       </c>
       <c r="C541">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.2">
@@ -12729,7 +12729,7 @@
       </c>
       <c r="C542">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.2">
@@ -12741,7 +12741,7 @@
       </c>
       <c r="C543">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.2">
@@ -12753,7 +12753,7 @@
       </c>
       <c r="C544">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.2">
@@ -12765,7 +12765,7 @@
       </c>
       <c r="C545">
         <f t="shared" ca="1" si="8"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.2">
@@ -12777,7 +12777,7 @@
       </c>
       <c r="C546">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
@@ -12789,7 +12789,7 @@
       </c>
       <c r="C547">
         <f t="shared" ca="1" si="8"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.2">
@@ -12801,7 +12801,7 @@
       </c>
       <c r="C548">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.2">
@@ -12813,7 +12813,7 @@
       </c>
       <c r="C549">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.2">
@@ -12837,7 +12837,7 @@
       </c>
       <c r="C551">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.2">
@@ -12849,7 +12849,7 @@
       </c>
       <c r="C552">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.2">
@@ -12861,7 +12861,7 @@
       </c>
       <c r="C553">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.2">
@@ -12873,7 +12873,7 @@
       </c>
       <c r="C554">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.2">
@@ -12885,7 +12885,7 @@
       </c>
       <c r="C555">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.2">
@@ -12897,7 +12897,7 @@
       </c>
       <c r="C556">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.2">
@@ -12909,7 +12909,7 @@
       </c>
       <c r="C557">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.2">
@@ -12921,7 +12921,7 @@
       </c>
       <c r="C558">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.2">
@@ -12933,7 +12933,7 @@
       </c>
       <c r="C559">
         <f t="shared" ca="1" si="8"/>
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.2">
@@ -12957,7 +12957,7 @@
       </c>
       <c r="C561">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.2">
@@ -12969,7 +12969,7 @@
       </c>
       <c r="C562">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.2">
@@ -12981,7 +12981,7 @@
       </c>
       <c r="C563">
         <f t="shared" ca="1" si="8"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.2">
@@ -12993,7 +12993,7 @@
       </c>
       <c r="C564">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.2">
@@ -13005,7 +13005,7 @@
       </c>
       <c r="C565">
         <f t="shared" ca="1" si="8"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.2">
@@ -13017,7 +13017,7 @@
       </c>
       <c r="C566">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.2">
@@ -13029,7 +13029,7 @@
       </c>
       <c r="C567">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.2">
@@ -13041,7 +13041,7 @@
       </c>
       <c r="C568">
         <f t="shared" ca="1" si="8"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.2">
@@ -13053,7 +13053,7 @@
       </c>
       <c r="C569">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.2">
@@ -13065,7 +13065,7 @@
       </c>
       <c r="C570">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.2">
@@ -13077,7 +13077,7 @@
       </c>
       <c r="C571">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.2">
@@ -13089,7 +13089,7 @@
       </c>
       <c r="C572">
         <f t="shared" ca="1" si="8"/>
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.2">
@@ -13101,7 +13101,7 @@
       </c>
       <c r="C573">
         <f t="shared" ca="1" si="8"/>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.2">
@@ -13113,7 +13113,7 @@
       </c>
       <c r="C574">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.2">
@@ -13125,7 +13125,7 @@
       </c>
       <c r="C575">
         <f t="shared" ca="1" si="8"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.2">
@@ -13137,7 +13137,7 @@
       </c>
       <c r="C576">
         <f t="shared" ca="1" si="8"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.2">
@@ -13149,7 +13149,7 @@
       </c>
       <c r="C577">
         <f t="shared" ca="1" si="8"/>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.2">
@@ -13161,7 +13161,7 @@
       </c>
       <c r="C578">
         <f t="shared" ca="1" si="8"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.2">
@@ -13173,7 +13173,7 @@
       </c>
       <c r="C579">
         <f t="shared" ref="C579:C642" ca="1" si="9">RANDBETWEEN(1,10)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.2">
@@ -13185,7 +13185,7 @@
       </c>
       <c r="C580">
         <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.2">
@@ -13197,7 +13197,7 @@
       </c>
       <c r="C581">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.2">
@@ -13209,7 +13209,7 @@
       </c>
       <c r="C582">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.2">
@@ -13221,7 +13221,7 @@
       </c>
       <c r="C583">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.2">
@@ -13233,7 +13233,7 @@
       </c>
       <c r="C584">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.2">
@@ -13245,7 +13245,7 @@
       </c>
       <c r="C585">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.2">
@@ -13257,7 +13257,7 @@
       </c>
       <c r="C586">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.2">
@@ -13269,7 +13269,7 @@
       </c>
       <c r="C587">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.2">
@@ -13281,7 +13281,7 @@
       </c>
       <c r="C588">
         <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.2">
@@ -13293,7 +13293,7 @@
       </c>
       <c r="C589">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.2">
@@ -13305,7 +13305,7 @@
       </c>
       <c r="C590">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.2">
@@ -13317,7 +13317,7 @@
       </c>
       <c r="C591">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.2">
@@ -13329,7 +13329,7 @@
       </c>
       <c r="C592">
         <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.2">
@@ -13341,7 +13341,7 @@
       </c>
       <c r="C593">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.2">
@@ -13353,7 +13353,7 @@
       </c>
       <c r="C594">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.2">
@@ -13365,7 +13365,7 @@
       </c>
       <c r="C595">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.2">
@@ -13377,7 +13377,7 @@
       </c>
       <c r="C596">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.2">
@@ -13389,7 +13389,7 @@
       </c>
       <c r="C597">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.2">
@@ -13401,7 +13401,7 @@
       </c>
       <c r="C598">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.2">
@@ -13413,7 +13413,7 @@
       </c>
       <c r="C599">
         <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.2">
@@ -13425,7 +13425,7 @@
       </c>
       <c r="C600">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.2">
@@ -13437,7 +13437,7 @@
       </c>
       <c r="C601">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.2">
@@ -13449,7 +13449,7 @@
       </c>
       <c r="C602">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.2">
@@ -13461,7 +13461,7 @@
       </c>
       <c r="C603">
         <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.2">
@@ -13473,7 +13473,7 @@
       </c>
       <c r="C604">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.2">
@@ -13485,7 +13485,7 @@
       </c>
       <c r="C605">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.2">
@@ -13497,7 +13497,7 @@
       </c>
       <c r="C606">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.2">
@@ -13509,7 +13509,7 @@
       </c>
       <c r="C607">
         <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.2">
@@ -13521,7 +13521,7 @@
       </c>
       <c r="C608">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.2">
@@ -13533,7 +13533,7 @@
       </c>
       <c r="C609">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.2">
@@ -13545,7 +13545,7 @@
       </c>
       <c r="C610">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.2">
@@ -13557,7 +13557,7 @@
       </c>
       <c r="C611">
         <f t="shared" ca="1" si="9"/>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.2">
@@ -13569,7 +13569,7 @@
       </c>
       <c r="C612">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.2">
@@ -13581,7 +13581,7 @@
       </c>
       <c r="C613">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.2">
@@ -13593,7 +13593,7 @@
       </c>
       <c r="C614">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.2">
@@ -13605,7 +13605,7 @@
       </c>
       <c r="C615">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.2">
@@ -13617,7 +13617,7 @@
       </c>
       <c r="C616">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.2">
@@ -13629,7 +13629,7 @@
       </c>
       <c r="C617">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.2">
@@ -13641,7 +13641,7 @@
       </c>
       <c r="C618">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.2">
@@ -13653,7 +13653,7 @@
       </c>
       <c r="C619">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.2">
@@ -13665,7 +13665,7 @@
       </c>
       <c r="C620">
         <f t="shared" ca="1" si="9"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.2">
@@ -13677,7 +13677,7 @@
       </c>
       <c r="C621">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.2">
@@ -13689,7 +13689,7 @@
       </c>
       <c r="C622">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.2">
@@ -13701,7 +13701,7 @@
       </c>
       <c r="C623">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.2">
@@ -13713,7 +13713,7 @@
       </c>
       <c r="C624">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.2">
@@ -13725,7 +13725,7 @@
       </c>
       <c r="C625">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.2">
@@ -13737,7 +13737,7 @@
       </c>
       <c r="C626">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.2">
@@ -13749,7 +13749,7 @@
       </c>
       <c r="C627">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.2">
@@ -13761,7 +13761,7 @@
       </c>
       <c r="C628">
         <f t="shared" ca="1" si="9"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.2">
@@ -13773,7 +13773,7 @@
       </c>
       <c r="C629">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.2">
@@ -13785,7 +13785,7 @@
       </c>
       <c r="C630">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.2">
@@ -13797,7 +13797,7 @@
       </c>
       <c r="C631">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.2">
@@ -13809,7 +13809,7 @@
       </c>
       <c r="C632">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.2">
@@ -13821,7 +13821,7 @@
       </c>
       <c r="C633">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.2">
@@ -13833,7 +13833,7 @@
       </c>
       <c r="C634">
         <f t="shared" ca="1" si="9"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.2">
@@ -13845,7 +13845,7 @@
       </c>
       <c r="C635">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.2">
@@ -13857,7 +13857,7 @@
       </c>
       <c r="C636">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.2">
@@ -13869,7 +13869,7 @@
       </c>
       <c r="C637">
         <f t="shared" ca="1" si="9"/>
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.2">
@@ -13881,7 +13881,7 @@
       </c>
       <c r="C638">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.2">
@@ -13893,7 +13893,7 @@
       </c>
       <c r="C639">
         <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.2">
@@ -13905,7 +13905,7 @@
       </c>
       <c r="C640">
         <f t="shared" ca="1" si="9"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.2">
@@ -13917,7 +13917,7 @@
       </c>
       <c r="C641">
         <f t="shared" ca="1" si="9"/>
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.2">
@@ -13929,7 +13929,7 @@
       </c>
       <c r="C642">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.2">
@@ -13941,7 +13941,7 @@
       </c>
       <c r="C643">
         <f t="shared" ref="C643:C706" ca="1" si="10">RANDBETWEEN(1,10)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.2">
@@ -13953,7 +13953,7 @@
       </c>
       <c r="C644">
         <f t="shared" ca="1" si="10"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.2">
@@ -13965,7 +13965,7 @@
       </c>
       <c r="C645">
         <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.2">
@@ -14001,7 +14001,7 @@
       </c>
       <c r="C648">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.2">
@@ -14013,7 +14013,7 @@
       </c>
       <c r="C649">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.2">
@@ -14037,7 +14037,7 @@
       </c>
       <c r="C651">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.2">
@@ -14049,7 +14049,7 @@
       </c>
       <c r="C652">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.2">
@@ -14061,7 +14061,7 @@
       </c>
       <c r="C653">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.2">
@@ -14073,7 +14073,7 @@
       </c>
       <c r="C654">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.2">
@@ -14085,7 +14085,7 @@
       </c>
       <c r="C655">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.2">
@@ -14097,7 +14097,7 @@
       </c>
       <c r="C656">
         <f t="shared" ca="1" si="10"/>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.2">
@@ -14109,7 +14109,7 @@
       </c>
       <c r="C657">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.2">
@@ -14121,7 +14121,7 @@
       </c>
       <c r="C658">
         <f t="shared" ca="1" si="10"/>
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.2">
@@ -14133,7 +14133,7 @@
       </c>
       <c r="C659">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.2">
@@ -14145,7 +14145,7 @@
       </c>
       <c r="C660">
         <f t="shared" ca="1" si="10"/>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.2">
@@ -14157,7 +14157,7 @@
       </c>
       <c r="C661">
         <f t="shared" ca="1" si="10"/>
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.2">
@@ -14169,7 +14169,7 @@
       </c>
       <c r="C662">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.2">
@@ -14181,7 +14181,7 @@
       </c>
       <c r="C663">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.2">
@@ -14205,7 +14205,7 @@
       </c>
       <c r="C665">
         <f t="shared" ca="1" si="10"/>
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.2">
@@ -14217,7 +14217,7 @@
       </c>
       <c r="C666">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.2">
@@ -14241,7 +14241,7 @@
       </c>
       <c r="C668">
         <f t="shared" ca="1" si="10"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.2">
@@ -14253,7 +14253,7 @@
       </c>
       <c r="C669">
         <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.2">
@@ -14265,7 +14265,7 @@
       </c>
       <c r="C670">
         <f t="shared" ca="1" si="10"/>
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.2">
@@ -14289,7 +14289,7 @@
       </c>
       <c r="C672">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.2">
@@ -14301,7 +14301,7 @@
       </c>
       <c r="C673">
         <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.2">
@@ -14325,7 +14325,7 @@
       </c>
       <c r="C675">
         <f t="shared" ca="1" si="10"/>
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.2">
@@ -14337,7 +14337,7 @@
       </c>
       <c r="C676">
         <f t="shared" ca="1" si="10"/>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.2">
@@ -14349,7 +14349,7 @@
       </c>
       <c r="C677">
         <f t="shared" ca="1" si="10"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.2">
@@ -14361,7 +14361,7 @@
       </c>
       <c r="C678">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.2">
@@ -14385,7 +14385,7 @@
       </c>
       <c r="C680">
         <f t="shared" ca="1" si="10"/>
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.2">
@@ -14409,7 +14409,7 @@
       </c>
       <c r="C682">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.2">
@@ -14421,7 +14421,7 @@
       </c>
       <c r="C683">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.2">
@@ -14433,7 +14433,7 @@
       </c>
       <c r="C684">
         <f t="shared" ca="1" si="10"/>
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.2">
@@ -14445,7 +14445,7 @@
       </c>
       <c r="C685">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.2">
@@ -14457,7 +14457,7 @@
       </c>
       <c r="C686">
         <f t="shared" ca="1" si="10"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.2">
@@ -14469,7 +14469,7 @@
       </c>
       <c r="C687">
         <f t="shared" ca="1" si="10"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.2">
@@ -14481,7 +14481,7 @@
       </c>
       <c r="C688">
         <f t="shared" ca="1" si="10"/>
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.2">
@@ -14493,7 +14493,7 @@
       </c>
       <c r="C689">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.2">
@@ -14505,7 +14505,7 @@
       </c>
       <c r="C690">
         <f t="shared" ca="1" si="10"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.2">
@@ -14517,7 +14517,7 @@
       </c>
       <c r="C691">
         <f t="shared" ca="1" si="10"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.2">
@@ -14529,7 +14529,7 @@
       </c>
       <c r="C692">
         <f t="shared" ca="1" si="10"/>
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.2">
@@ -14553,7 +14553,7 @@
       </c>
       <c r="C694">
         <f t="shared" ca="1" si="10"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.2">
@@ -14565,7 +14565,7 @@
       </c>
       <c r="C695">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.2">
@@ -14577,7 +14577,7 @@
       </c>
       <c r="C696">
         <f t="shared" ca="1" si="10"/>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.2">
@@ -14589,7 +14589,7 @@
       </c>
       <c r="C697">
         <f t="shared" ca="1" si="10"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.2">
@@ -14613,7 +14613,7 @@
       </c>
       <c r="C699">
         <f t="shared" ca="1" si="10"/>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.2">
@@ -14625,7 +14625,7 @@
       </c>
       <c r="C700">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.2">
@@ -14637,7 +14637,7 @@
       </c>
       <c r="C701">
         <f t="shared" ca="1" si="10"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.2">
@@ -14649,7 +14649,7 @@
       </c>
       <c r="C702">
         <f t="shared" ca="1" si="10"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.2">
@@ -14661,7 +14661,7 @@
       </c>
       <c r="C703">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.2">
@@ -14673,7 +14673,7 @@
       </c>
       <c r="C704">
         <f t="shared" ca="1" si="10"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.2">
@@ -14697,7 +14697,7 @@
       </c>
       <c r="C706">
         <f t="shared" ca="1" si="10"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.2">
@@ -14709,7 +14709,7 @@
       </c>
       <c r="C707">
         <f t="shared" ref="C707:C770" ca="1" si="11">RANDBETWEEN(1,10)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.2">
@@ -14721,7 +14721,7 @@
       </c>
       <c r="C708">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.2">
@@ -14733,7 +14733,7 @@
       </c>
       <c r="C709">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.2">
@@ -14745,7 +14745,7 @@
       </c>
       <c r="C710">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.2">
@@ -14757,7 +14757,7 @@
       </c>
       <c r="C711">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.2">
@@ -14769,7 +14769,7 @@
       </c>
       <c r="C712">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.2">
@@ -14781,7 +14781,7 @@
       </c>
       <c r="C713">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.2">
@@ -14805,7 +14805,7 @@
       </c>
       <c r="C715">
         <f t="shared" ca="1" si="11"/>
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.2">
@@ -14829,7 +14829,7 @@
       </c>
       <c r="C717">
         <f t="shared" ca="1" si="11"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.2">
@@ -14841,7 +14841,7 @@
       </c>
       <c r="C718">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.2">
@@ -14853,7 +14853,7 @@
       </c>
       <c r="C719">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.2">
@@ -14877,7 +14877,7 @@
       </c>
       <c r="C721">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.2">
@@ -14889,7 +14889,7 @@
       </c>
       <c r="C722">
         <f t="shared" ca="1" si="11"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.2">
@@ -14901,7 +14901,7 @@
       </c>
       <c r="C723">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.2">
@@ -14913,7 +14913,7 @@
       </c>
       <c r="C724">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.2">
@@ -14925,7 +14925,7 @@
       </c>
       <c r="C725">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.2">
@@ -14937,7 +14937,7 @@
       </c>
       <c r="C726">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.2">
@@ -14949,7 +14949,7 @@
       </c>
       <c r="C727">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.2">
@@ -14961,7 +14961,7 @@
       </c>
       <c r="C728">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.2">
@@ -14973,7 +14973,7 @@
       </c>
       <c r="C729">
         <f t="shared" ca="1" si="11"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.2">
@@ -14985,7 +14985,7 @@
       </c>
       <c r="C730">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.2">
@@ -14997,7 +14997,7 @@
       </c>
       <c r="C731">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.2">
@@ -15009,7 +15009,7 @@
       </c>
       <c r="C732">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.2">
@@ -15021,7 +15021,7 @@
       </c>
       <c r="C733">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.2">
@@ -15033,7 +15033,7 @@
       </c>
       <c r="C734">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.2">
@@ -15045,7 +15045,7 @@
       </c>
       <c r="C735">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.2">
@@ -15057,7 +15057,7 @@
       </c>
       <c r="C736">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.2">
@@ -15069,7 +15069,7 @@
       </c>
       <c r="C737">
         <f t="shared" ca="1" si="11"/>
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.2">
@@ -15081,7 +15081,7 @@
       </c>
       <c r="C738">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.2">
@@ -15093,7 +15093,7 @@
       </c>
       <c r="C739">
         <f t="shared" ca="1" si="11"/>
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.2">
@@ -15105,7 +15105,7 @@
       </c>
       <c r="C740">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.2">
@@ -15129,7 +15129,7 @@
       </c>
       <c r="C742">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.2">
@@ -15141,7 +15141,7 @@
       </c>
       <c r="C743">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.2">
@@ -15165,7 +15165,7 @@
       </c>
       <c r="C745">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.2">
@@ -15177,7 +15177,7 @@
       </c>
       <c r="C746">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.2">
@@ -15189,7 +15189,7 @@
       </c>
       <c r="C747">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.2">
@@ -15201,7 +15201,7 @@
       </c>
       <c r="C748">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.2">
@@ -15249,7 +15249,7 @@
       </c>
       <c r="C752">
         <f t="shared" ca="1" si="11"/>
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.2">
@@ -15261,7 +15261,7 @@
       </c>
       <c r="C753">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.2">
@@ -15273,7 +15273,7 @@
       </c>
       <c r="C754">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.2">
@@ -15285,7 +15285,7 @@
       </c>
       <c r="C755">
         <f t="shared" ca="1" si="11"/>
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.2">
@@ -15297,7 +15297,7 @@
       </c>
       <c r="C756">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.2">
@@ -15321,7 +15321,7 @@
       </c>
       <c r="C758">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.2">
@@ -15333,7 +15333,7 @@
       </c>
       <c r="C759">
         <f t="shared" ca="1" si="11"/>
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.2">
@@ -15345,7 +15345,7 @@
       </c>
       <c r="C760">
         <f t="shared" ca="1" si="11"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.2">
@@ -15357,7 +15357,7 @@
       </c>
       <c r="C761">
         <f t="shared" ca="1" si="11"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.2">
@@ -15369,7 +15369,7 @@
       </c>
       <c r="C762">
         <f t="shared" ca="1" si="11"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.2">
@@ -15381,7 +15381,7 @@
       </c>
       <c r="C763">
         <f t="shared" ca="1" si="11"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.2">
@@ -15393,7 +15393,7 @@
       </c>
       <c r="C764">
         <f t="shared" ca="1" si="11"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.2">
@@ -15405,7 +15405,7 @@
       </c>
       <c r="C765">
         <f t="shared" ca="1" si="11"/>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.2">
@@ -15429,7 +15429,7 @@
       </c>
       <c r="C767">
         <f t="shared" ca="1" si="11"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.2">
@@ -15441,7 +15441,7 @@
       </c>
       <c r="C768">
         <f t="shared" ca="1" si="11"/>
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.2">
@@ -15453,7 +15453,7 @@
       </c>
       <c r="C769">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.2">
@@ -15465,7 +15465,7 @@
       </c>
       <c r="C770">
         <f t="shared" ca="1" si="11"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.2">
@@ -15477,7 +15477,7 @@
       </c>
       <c r="C771">
         <f t="shared" ref="C771:C834" ca="1" si="12">RANDBETWEEN(1,10)</f>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.2">
@@ -15501,7 +15501,7 @@
       </c>
       <c r="C773">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.2">
@@ -15513,7 +15513,7 @@
       </c>
       <c r="C774">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.2">
@@ -15525,7 +15525,7 @@
       </c>
       <c r="C775">
         <f t="shared" ca="1" si="12"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.2">
@@ -15537,7 +15537,7 @@
       </c>
       <c r="C776">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.2">
@@ -15549,7 +15549,7 @@
       </c>
       <c r="C777">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.2">
@@ -15561,7 +15561,7 @@
       </c>
       <c r="C778">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.2">
@@ -15573,7 +15573,7 @@
       </c>
       <c r="C779">
         <f t="shared" ca="1" si="12"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.2">
@@ -15585,7 +15585,7 @@
       </c>
       <c r="C780">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.2">
@@ -15597,7 +15597,7 @@
       </c>
       <c r="C781">
         <f t="shared" ca="1" si="12"/>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.2">
@@ -15609,7 +15609,7 @@
       </c>
       <c r="C782">
         <f t="shared" ca="1" si="12"/>
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.2">
@@ -15633,7 +15633,7 @@
       </c>
       <c r="C784">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.2">
@@ -15645,7 +15645,7 @@
       </c>
       <c r="C785">
         <f t="shared" ca="1" si="12"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.2">
@@ -15657,7 +15657,7 @@
       </c>
       <c r="C786">
         <f t="shared" ca="1" si="12"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.2">
@@ -15669,7 +15669,7 @@
       </c>
       <c r="C787">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.2">
@@ -15681,7 +15681,7 @@
       </c>
       <c r="C788">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.2">
@@ -15693,7 +15693,7 @@
       </c>
       <c r="C789">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.2">
@@ -15705,7 +15705,7 @@
       </c>
       <c r="C790">
         <f t="shared" ca="1" si="12"/>
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.2">
@@ -15717,7 +15717,7 @@
       </c>
       <c r="C791">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.2">
@@ -15741,7 +15741,7 @@
       </c>
       <c r="C793">
         <f t="shared" ca="1" si="12"/>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.2">
@@ -15753,7 +15753,7 @@
       </c>
       <c r="C794">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.2">
@@ -15765,7 +15765,7 @@
       </c>
       <c r="C795">
         <f t="shared" ca="1" si="12"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="796" spans="1:3" x14ac:dyDescent="0.2">
@@ -15777,7 +15777,7 @@
       </c>
       <c r="C796">
         <f t="shared" ca="1" si="12"/>
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.2">
@@ -15789,7 +15789,7 @@
       </c>
       <c r="C797">
         <f t="shared" ca="1" si="12"/>
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.2">
@@ -15801,7 +15801,7 @@
       </c>
       <c r="C798">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="799" spans="1:3" x14ac:dyDescent="0.2">
@@ -15813,7 +15813,7 @@
       </c>
       <c r="C799">
         <f t="shared" ca="1" si="12"/>
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.2">
@@ -15825,7 +15825,7 @@
       </c>
       <c r="C800">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="801" spans="1:3" x14ac:dyDescent="0.2">
@@ -15837,7 +15837,7 @@
       </c>
       <c r="C801">
         <f t="shared" ca="1" si="12"/>
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="802" spans="1:3" x14ac:dyDescent="0.2">
@@ -15849,7 +15849,7 @@
       </c>
       <c r="C802">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="803" spans="1:3" x14ac:dyDescent="0.2">
@@ -15861,7 +15861,7 @@
       </c>
       <c r="C803">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="804" spans="1:3" x14ac:dyDescent="0.2">
@@ -15873,7 +15873,7 @@
       </c>
       <c r="C804">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="805" spans="1:3" x14ac:dyDescent="0.2">
@@ -15885,7 +15885,7 @@
       </c>
       <c r="C805">
         <f t="shared" ca="1" si="12"/>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="806" spans="1:3" x14ac:dyDescent="0.2">
@@ -15897,7 +15897,7 @@
       </c>
       <c r="C806">
         <f t="shared" ca="1" si="12"/>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="807" spans="1:3" x14ac:dyDescent="0.2">
@@ -15909,7 +15909,7 @@
       </c>
       <c r="C807">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="808" spans="1:3" x14ac:dyDescent="0.2">
@@ -15933,7 +15933,7 @@
       </c>
       <c r="C809">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="810" spans="1:3" x14ac:dyDescent="0.2">
@@ -15945,7 +15945,7 @@
       </c>
       <c r="C810">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="811" spans="1:3" x14ac:dyDescent="0.2">
@@ -15957,7 +15957,7 @@
       </c>
       <c r="C811">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="812" spans="1:3" x14ac:dyDescent="0.2">
@@ -15969,7 +15969,7 @@
       </c>
       <c r="C812">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="813" spans="1:3" x14ac:dyDescent="0.2">
@@ -15981,7 +15981,7 @@
       </c>
       <c r="C813">
         <f t="shared" ca="1" si="12"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="814" spans="1:3" x14ac:dyDescent="0.2">
@@ -15993,7 +15993,7 @@
       </c>
       <c r="C814">
         <f t="shared" ca="1" si="12"/>
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="815" spans="1:3" x14ac:dyDescent="0.2">
@@ -16005,7 +16005,7 @@
       </c>
       <c r="C815">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="816" spans="1:3" x14ac:dyDescent="0.2">
@@ -16017,7 +16017,7 @@
       </c>
       <c r="C816">
         <f t="shared" ca="1" si="12"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.2">
@@ -16029,7 +16029,7 @@
       </c>
       <c r="C817">
         <f t="shared" ca="1" si="12"/>
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.2">
@@ -16041,7 +16041,7 @@
       </c>
       <c r="C818">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.2">
@@ -16053,7 +16053,7 @@
       </c>
       <c r="C819">
         <f t="shared" ca="1" si="12"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.2">
@@ -16065,7 +16065,7 @@
       </c>
       <c r="C820">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="821" spans="1:3" x14ac:dyDescent="0.2">
@@ -16089,7 +16089,7 @@
       </c>
       <c r="C822">
         <f t="shared" ca="1" si="12"/>
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.2">
@@ -16101,7 +16101,7 @@
       </c>
       <c r="C823">
         <f t="shared" ca="1" si="12"/>
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.2">
@@ -16113,7 +16113,7 @@
       </c>
       <c r="C824">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="825" spans="1:3" x14ac:dyDescent="0.2">
@@ -16125,7 +16125,7 @@
       </c>
       <c r="C825">
         <f t="shared" ca="1" si="12"/>
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="826" spans="1:3" x14ac:dyDescent="0.2">
@@ -16137,7 +16137,7 @@
       </c>
       <c r="C826">
         <f t="shared" ca="1" si="12"/>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="827" spans="1:3" x14ac:dyDescent="0.2">
@@ -16149,7 +16149,7 @@
       </c>
       <c r="C827">
         <f t="shared" ca="1" si="12"/>
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="828" spans="1:3" x14ac:dyDescent="0.2">
@@ -16161,7 +16161,7 @@
       </c>
       <c r="C828">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="829" spans="1:3" x14ac:dyDescent="0.2">
@@ -16173,7 +16173,7 @@
       </c>
       <c r="C829">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="830" spans="1:3" x14ac:dyDescent="0.2">
@@ -16185,7 +16185,7 @@
       </c>
       <c r="C830">
         <f t="shared" ca="1" si="12"/>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.2">
@@ -16233,7 +16233,7 @@
       </c>
       <c r="C834">
         <f t="shared" ca="1" si="12"/>
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.2">
@@ -16245,7 +16245,7 @@
       </c>
       <c r="C835">
         <f t="shared" ref="C835:C898" ca="1" si="13">RANDBETWEEN(1,10)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="836" spans="1:3" x14ac:dyDescent="0.2">
@@ -16257,7 +16257,7 @@
       </c>
       <c r="C836">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.2">
@@ -16269,7 +16269,7 @@
       </c>
       <c r="C837">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.2">
@@ -16281,7 +16281,7 @@
       </c>
       <c r="C838">
         <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="839" spans="1:3" x14ac:dyDescent="0.2">
@@ -16293,7 +16293,7 @@
       </c>
       <c r="C839">
         <f t="shared" ca="1" si="13"/>
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="840" spans="1:3" x14ac:dyDescent="0.2">
@@ -16305,7 +16305,7 @@
       </c>
       <c r="C840">
         <f t="shared" ca="1" si="13"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="841" spans="1:3" x14ac:dyDescent="0.2">
@@ -16329,7 +16329,7 @@
       </c>
       <c r="C842">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="843" spans="1:3" x14ac:dyDescent="0.2">
@@ -16341,7 +16341,7 @@
       </c>
       <c r="C843">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="844" spans="1:3" x14ac:dyDescent="0.2">
@@ -16353,7 +16353,7 @@
       </c>
       <c r="C844">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="845" spans="1:3" x14ac:dyDescent="0.2">
@@ -16365,7 +16365,7 @@
       </c>
       <c r="C845">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.2">
@@ -16377,7 +16377,7 @@
       </c>
       <c r="C846">
         <f t="shared" ca="1" si="13"/>
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="847" spans="1:3" x14ac:dyDescent="0.2">
@@ -16389,7 +16389,7 @@
       </c>
       <c r="C847">
         <f t="shared" ca="1" si="13"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="848" spans="1:3" x14ac:dyDescent="0.2">
@@ -16401,7 +16401,7 @@
       </c>
       <c r="C848">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="849" spans="1:3" x14ac:dyDescent="0.2">
@@ -16413,7 +16413,7 @@
       </c>
       <c r="C849">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="850" spans="1:3" x14ac:dyDescent="0.2">
@@ -16425,7 +16425,7 @@
       </c>
       <c r="C850">
         <f t="shared" ca="1" si="13"/>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="851" spans="1:3" x14ac:dyDescent="0.2">
@@ -16437,7 +16437,7 @@
       </c>
       <c r="C851">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="852" spans="1:3" x14ac:dyDescent="0.2">
@@ -16449,7 +16449,7 @@
       </c>
       <c r="C852">
         <f t="shared" ca="1" si="13"/>
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="853" spans="1:3" x14ac:dyDescent="0.2">
@@ -16461,7 +16461,7 @@
       </c>
       <c r="C853">
         <f t="shared" ca="1" si="13"/>
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="854" spans="1:3" x14ac:dyDescent="0.2">
@@ -16485,7 +16485,7 @@
       </c>
       <c r="C855">
         <f t="shared" ca="1" si="13"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="856" spans="1:3" x14ac:dyDescent="0.2">
@@ -16497,7 +16497,7 @@
       </c>
       <c r="C856">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="857" spans="1:3" x14ac:dyDescent="0.2">
@@ -16509,7 +16509,7 @@
       </c>
       <c r="C857">
         <f t="shared" ca="1" si="13"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="858" spans="1:3" x14ac:dyDescent="0.2">
@@ -16521,7 +16521,7 @@
       </c>
       <c r="C858">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="859" spans="1:3" x14ac:dyDescent="0.2">
@@ -16533,7 +16533,7 @@
       </c>
       <c r="C859">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="860" spans="1:3" x14ac:dyDescent="0.2">
@@ -16545,7 +16545,7 @@
       </c>
       <c r="C860">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="861" spans="1:3" x14ac:dyDescent="0.2">
@@ -16557,7 +16557,7 @@
       </c>
       <c r="C861">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="862" spans="1:3" x14ac:dyDescent="0.2">
@@ -16569,7 +16569,7 @@
       </c>
       <c r="C862">
         <f t="shared" ca="1" si="13"/>
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="863" spans="1:3" x14ac:dyDescent="0.2">
@@ -16605,7 +16605,7 @@
       </c>
       <c r="C865">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="866" spans="1:3" x14ac:dyDescent="0.2">
@@ -16617,7 +16617,7 @@
       </c>
       <c r="C866">
         <f t="shared" ca="1" si="13"/>
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="867" spans="1:3" x14ac:dyDescent="0.2">
@@ -16629,7 +16629,7 @@
       </c>
       <c r="C867">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="868" spans="1:3" x14ac:dyDescent="0.2">
@@ -16653,7 +16653,7 @@
       </c>
       <c r="C869">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="870" spans="1:3" x14ac:dyDescent="0.2">
@@ -16677,7 +16677,7 @@
       </c>
       <c r="C871">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="872" spans="1:3" x14ac:dyDescent="0.2">
@@ -16689,7 +16689,7 @@
       </c>
       <c r="C872">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="873" spans="1:3" x14ac:dyDescent="0.2">
@@ -16701,7 +16701,7 @@
       </c>
       <c r="C873">
         <f t="shared" ca="1" si="13"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="874" spans="1:3" x14ac:dyDescent="0.2">
@@ -16713,7 +16713,7 @@
       </c>
       <c r="C874">
         <f t="shared" ca="1" si="13"/>
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="875" spans="1:3" x14ac:dyDescent="0.2">
@@ -16725,7 +16725,7 @@
       </c>
       <c r="C875">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="876" spans="1:3" x14ac:dyDescent="0.2">
@@ -16737,7 +16737,7 @@
       </c>
       <c r="C876">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="877" spans="1:3" x14ac:dyDescent="0.2">
@@ -16761,7 +16761,7 @@
       </c>
       <c r="C878">
         <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="879" spans="1:3" x14ac:dyDescent="0.2">
@@ -16773,7 +16773,7 @@
       </c>
       <c r="C879">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="880" spans="1:3" x14ac:dyDescent="0.2">
@@ -16785,7 +16785,7 @@
       </c>
       <c r="C880">
         <f t="shared" ca="1" si="13"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="881" spans="1:3" x14ac:dyDescent="0.2">
@@ -16797,7 +16797,7 @@
       </c>
       <c r="C881">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="882" spans="1:3" x14ac:dyDescent="0.2">
@@ -16821,7 +16821,7 @@
       </c>
       <c r="C883">
         <f t="shared" ca="1" si="13"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="884" spans="1:3" x14ac:dyDescent="0.2">
@@ -16833,7 +16833,7 @@
       </c>
       <c r="C884">
         <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="885" spans="1:3" x14ac:dyDescent="0.2">
@@ -16845,7 +16845,7 @@
       </c>
       <c r="C885">
         <f t="shared" ca="1" si="13"/>
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="886" spans="1:3" x14ac:dyDescent="0.2">
@@ -16857,7 +16857,7 @@
       </c>
       <c r="C886">
         <f t="shared" ca="1" si="13"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="887" spans="1:3" x14ac:dyDescent="0.2">
@@ -16869,7 +16869,7 @@
       </c>
       <c r="C887">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="888" spans="1:3" x14ac:dyDescent="0.2">
@@ -16881,7 +16881,7 @@
       </c>
       <c r="C888">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="889" spans="1:3" x14ac:dyDescent="0.2">
@@ -16893,7 +16893,7 @@
       </c>
       <c r="C889">
         <f t="shared" ca="1" si="13"/>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="890" spans="1:3" x14ac:dyDescent="0.2">
@@ -16917,7 +16917,7 @@
       </c>
       <c r="C891">
         <f t="shared" ca="1" si="13"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="892" spans="1:3" x14ac:dyDescent="0.2">
@@ -16929,7 +16929,7 @@
       </c>
       <c r="C892">
         <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="893" spans="1:3" x14ac:dyDescent="0.2">
@@ -16941,7 +16941,7 @@
       </c>
       <c r="C893">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="894" spans="1:3" x14ac:dyDescent="0.2">
@@ -16953,7 +16953,7 @@
       </c>
       <c r="C894">
         <f t="shared" ca="1" si="13"/>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="895" spans="1:3" x14ac:dyDescent="0.2">
@@ -16965,7 +16965,7 @@
       </c>
       <c r="C895">
         <f t="shared" ca="1" si="13"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="896" spans="1:3" x14ac:dyDescent="0.2">
@@ -16989,7 +16989,7 @@
       </c>
       <c r="C897">
         <f t="shared" ca="1" si="13"/>
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="898" spans="1:3" x14ac:dyDescent="0.2">
@@ -17001,7 +17001,7 @@
       </c>
       <c r="C898">
         <f t="shared" ca="1" si="13"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="899" spans="1:3" x14ac:dyDescent="0.2">
@@ -17013,7 +17013,7 @@
       </c>
       <c r="C899">
         <f t="shared" ref="C899:C962" ca="1" si="14">RANDBETWEEN(1,10)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="900" spans="1:3" x14ac:dyDescent="0.2">
@@ -17025,7 +17025,7 @@
       </c>
       <c r="C900">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="901" spans="1:3" x14ac:dyDescent="0.2">
@@ -17049,7 +17049,7 @@
       </c>
       <c r="C902">
         <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="903" spans="1:3" x14ac:dyDescent="0.2">
@@ -17061,7 +17061,7 @@
       </c>
       <c r="C903">
         <f t="shared" ca="1" si="14"/>
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="904" spans="1:3" x14ac:dyDescent="0.2">
@@ -17073,7 +17073,7 @@
       </c>
       <c r="C904">
         <f t="shared" ca="1" si="14"/>
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="905" spans="1:3" x14ac:dyDescent="0.2">
@@ -17085,7 +17085,7 @@
       </c>
       <c r="C905">
         <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="906" spans="1:3" x14ac:dyDescent="0.2">
@@ -17097,7 +17097,7 @@
       </c>
       <c r="C906">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="907" spans="1:3" x14ac:dyDescent="0.2">
@@ -17109,7 +17109,7 @@
       </c>
       <c r="C907">
         <f t="shared" ca="1" si="14"/>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="908" spans="1:3" x14ac:dyDescent="0.2">
@@ -17121,7 +17121,7 @@
       </c>
       <c r="C908">
         <f t="shared" ca="1" si="14"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="909" spans="1:3" x14ac:dyDescent="0.2">
@@ -17133,7 +17133,7 @@
       </c>
       <c r="C909">
         <f t="shared" ca="1" si="14"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="910" spans="1:3" x14ac:dyDescent="0.2">
@@ -17145,7 +17145,7 @@
       </c>
       <c r="C910">
         <f t="shared" ca="1" si="14"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="911" spans="1:3" x14ac:dyDescent="0.2">
@@ -17157,7 +17157,7 @@
       </c>
       <c r="C911">
         <f t="shared" ca="1" si="14"/>
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="912" spans="1:3" x14ac:dyDescent="0.2">
@@ -17169,7 +17169,7 @@
       </c>
       <c r="C912">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="913" spans="1:3" x14ac:dyDescent="0.2">
@@ -17181,7 +17181,7 @@
       </c>
       <c r="C913">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="914" spans="1:3" x14ac:dyDescent="0.2">
@@ -17193,7 +17193,7 @@
       </c>
       <c r="C914">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="915" spans="1:3" x14ac:dyDescent="0.2">
@@ -17205,7 +17205,7 @@
       </c>
       <c r="C915">
         <f t="shared" ca="1" si="14"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="916" spans="1:3" x14ac:dyDescent="0.2">
@@ -17217,7 +17217,7 @@
       </c>
       <c r="C916">
         <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="917" spans="1:3" x14ac:dyDescent="0.2">
@@ -17229,7 +17229,7 @@
       </c>
       <c r="C917">
         <f t="shared" ca="1" si="14"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="918" spans="1:3" x14ac:dyDescent="0.2">
@@ -17241,7 +17241,7 @@
       </c>
       <c r="C918">
         <f t="shared" ca="1" si="14"/>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="919" spans="1:3" x14ac:dyDescent="0.2">
@@ -17253,7 +17253,7 @@
       </c>
       <c r="C919">
         <f t="shared" ca="1" si="14"/>
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="920" spans="1:3" x14ac:dyDescent="0.2">
@@ -17265,7 +17265,7 @@
       </c>
       <c r="C920">
         <f t="shared" ca="1" si="14"/>
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="921" spans="1:3" x14ac:dyDescent="0.2">
@@ -17277,7 +17277,7 @@
       </c>
       <c r="C921">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="922" spans="1:3" x14ac:dyDescent="0.2">
@@ -17289,7 +17289,7 @@
       </c>
       <c r="C922">
         <f t="shared" ca="1" si="14"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="923" spans="1:3" x14ac:dyDescent="0.2">
@@ -17301,7 +17301,7 @@
       </c>
       <c r="C923">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="924" spans="1:3" x14ac:dyDescent="0.2">
@@ -17313,7 +17313,7 @@
       </c>
       <c r="C924">
         <f t="shared" ca="1" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="925" spans="1:3" x14ac:dyDescent="0.2">
@@ -17325,7 +17325,7 @@
       </c>
       <c r="C925">
         <f t="shared" ca="1" si="14"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="926" spans="1:3" x14ac:dyDescent="0.2">
@@ -17337,7 +17337,7 @@
       </c>
       <c r="C926">
         <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="927" spans="1:3" x14ac:dyDescent="0.2">
@@ -17349,7 +17349,7 @@
       </c>
       <c r="C927">
         <f t="shared" ca="1" si="14"/>
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="928" spans="1:3" x14ac:dyDescent="0.2">
@@ -17361,7 +17361,7 @@
       </c>
       <c r="C928">
         <f t="shared" ca="1" si="14"/>
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="929" spans="1:3" x14ac:dyDescent="0.2">
@@ -17373,7 +17373,7 @@
       </c>
       <c r="C929">
         <f t="shared" ca="1" si="14"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="930" spans="1:3" x14ac:dyDescent="0.2">
@@ -17385,7 +17385,7 @@
       </c>
       <c r="C930">
         <f t="shared" ca="1" si="14"/>
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="931" spans="1:3" x14ac:dyDescent="0.2">
@@ -17397,7 +17397,7 @@
       </c>
       <c r="C931">
         <f t="shared" ca="1" si="14"/>
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="932" spans="1:3" x14ac:dyDescent="0.2">
@@ -17409,7 +17409,7 @@
       </c>
       <c r="C932">
         <f t="shared" ca="1" si="14"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="933" spans="1:3" x14ac:dyDescent="0.2">
@@ -17421,7 +17421,7 @@
       </c>
       <c r="C933">
         <f t="shared" ca="1" si="14"/>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="934" spans="1:3" x14ac:dyDescent="0.2">
@@ -17433,7 +17433,7 @@
       </c>
       <c r="C934">
         <f t="shared" ca="1" si="14"/>
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="935" spans="1:3" x14ac:dyDescent="0.2">
@@ -17445,7 +17445,7 @@
       </c>
       <c r="C935">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="936" spans="1:3" x14ac:dyDescent="0.2">
@@ -17469,7 +17469,7 @@
       </c>
       <c r="C937">
         <f t="shared" ca="1" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="938" spans="1:3" x14ac:dyDescent="0.2">
@@ -17493,7 +17493,7 @@
       </c>
       <c r="C939">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="940" spans="1:3" x14ac:dyDescent="0.2">
@@ -17505,7 +17505,7 @@
       </c>
       <c r="C940">
         <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="941" spans="1:3" x14ac:dyDescent="0.2">
@@ -17517,7 +17517,7 @@
       </c>
       <c r="C941">
         <f t="shared" ca="1" si="14"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="942" spans="1:3" x14ac:dyDescent="0.2">
@@ -17529,7 +17529,7 @@
       </c>
       <c r="C942">
         <f t="shared" ca="1" si="14"/>
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="943" spans="1:3" x14ac:dyDescent="0.2">
@@ -17541,7 +17541,7 @@
       </c>
       <c r="C943">
         <f t="shared" ca="1" si="14"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="944" spans="1:3" x14ac:dyDescent="0.2">
@@ -17553,7 +17553,7 @@
       </c>
       <c r="C944">
         <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="945" spans="1:3" x14ac:dyDescent="0.2">
@@ -17589,7 +17589,7 @@
       </c>
       <c r="C947">
         <f t="shared" ca="1" si="14"/>
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="948" spans="1:3" x14ac:dyDescent="0.2">
@@ -17601,7 +17601,7 @@
       </c>
       <c r="C948">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="949" spans="1:3" x14ac:dyDescent="0.2">
@@ -17613,7 +17613,7 @@
       </c>
       <c r="C949">
         <f t="shared" ca="1" si="14"/>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="950" spans="1:3" x14ac:dyDescent="0.2">
@@ -17625,7 +17625,7 @@
       </c>
       <c r="C950">
         <f t="shared" ca="1" si="14"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="951" spans="1:3" x14ac:dyDescent="0.2">
@@ -17637,7 +17637,7 @@
       </c>
       <c r="C951">
         <f t="shared" ca="1" si="14"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="952" spans="1:3" x14ac:dyDescent="0.2">
@@ -17649,7 +17649,7 @@
       </c>
       <c r="C952">
         <f t="shared" ca="1" si="14"/>
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="953" spans="1:3" x14ac:dyDescent="0.2">
@@ -17661,7 +17661,7 @@
       </c>
       <c r="C953">
         <f t="shared" ca="1" si="14"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="954" spans="1:3" x14ac:dyDescent="0.2">
@@ -17697,7 +17697,7 @@
       </c>
       <c r="C956">
         <f t="shared" ca="1" si="14"/>
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="957" spans="1:3" x14ac:dyDescent="0.2">
@@ -17709,7 +17709,7 @@
       </c>
       <c r="C957">
         <f t="shared" ca="1" si="14"/>
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="958" spans="1:3" x14ac:dyDescent="0.2">
@@ -17721,7 +17721,7 @@
       </c>
       <c r="C958">
         <f t="shared" ca="1" si="14"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="959" spans="1:3" x14ac:dyDescent="0.2">
@@ -17745,7 +17745,7 @@
       </c>
       <c r="C960">
         <f t="shared" ca="1" si="14"/>
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="961" spans="1:3" x14ac:dyDescent="0.2">
@@ -17757,7 +17757,7 @@
       </c>
       <c r="C961">
         <f t="shared" ca="1" si="14"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="962" spans="1:3" x14ac:dyDescent="0.2">
@@ -17769,7 +17769,7 @@
       </c>
       <c r="C962">
         <f t="shared" ca="1" si="14"/>
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="963" spans="1:3" x14ac:dyDescent="0.2">
@@ -17781,7 +17781,7 @@
       </c>
       <c r="C963">
         <f t="shared" ref="C963:C1001" ca="1" si="15">RANDBETWEEN(1,10)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="964" spans="1:3" x14ac:dyDescent="0.2">
@@ -17793,7 +17793,7 @@
       </c>
       <c r="C964">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="965" spans="1:3" x14ac:dyDescent="0.2">
@@ -17805,7 +17805,7 @@
       </c>
       <c r="C965">
         <f t="shared" ca="1" si="15"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="966" spans="1:3" x14ac:dyDescent="0.2">
@@ -17817,7 +17817,7 @@
       </c>
       <c r="C966">
         <f t="shared" ca="1" si="15"/>
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="967" spans="1:3" x14ac:dyDescent="0.2">
@@ -17829,7 +17829,7 @@
       </c>
       <c r="C967">
         <f t="shared" ca="1" si="15"/>
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="968" spans="1:3" x14ac:dyDescent="0.2">
@@ -17841,7 +17841,7 @@
       </c>
       <c r="C968">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="969" spans="1:3" x14ac:dyDescent="0.2">
@@ -17853,7 +17853,7 @@
       </c>
       <c r="C969">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="970" spans="1:3" x14ac:dyDescent="0.2">
@@ -17865,7 +17865,7 @@
       </c>
       <c r="C970">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="971" spans="1:3" x14ac:dyDescent="0.2">
@@ -17877,7 +17877,7 @@
       </c>
       <c r="C971">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="972" spans="1:3" x14ac:dyDescent="0.2">
@@ -17889,7 +17889,7 @@
       </c>
       <c r="C972">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="973" spans="1:3" x14ac:dyDescent="0.2">
@@ -17901,7 +17901,7 @@
       </c>
       <c r="C973">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="974" spans="1:3" x14ac:dyDescent="0.2">
@@ -17913,7 +17913,7 @@
       </c>
       <c r="C974">
         <f t="shared" ca="1" si="15"/>
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="975" spans="1:3" x14ac:dyDescent="0.2">
@@ -17925,7 +17925,7 @@
       </c>
       <c r="C975">
         <f t="shared" ca="1" si="15"/>
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="976" spans="1:3" x14ac:dyDescent="0.2">
@@ -17937,7 +17937,7 @@
       </c>
       <c r="C976">
         <f t="shared" ca="1" si="15"/>
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="977" spans="1:3" x14ac:dyDescent="0.2">
@@ -17949,7 +17949,7 @@
       </c>
       <c r="C977">
         <f t="shared" ca="1" si="15"/>
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="978" spans="1:3" x14ac:dyDescent="0.2">
@@ -17961,7 +17961,7 @@
       </c>
       <c r="C978">
         <f t="shared" ca="1" si="15"/>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="979" spans="1:3" x14ac:dyDescent="0.2">
@@ -17973,7 +17973,7 @@
       </c>
       <c r="C979">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="980" spans="1:3" x14ac:dyDescent="0.2">
@@ -17985,7 +17985,7 @@
       </c>
       <c r="C980">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="981" spans="1:3" x14ac:dyDescent="0.2">
@@ -18009,7 +18009,7 @@
       </c>
       <c r="C982">
         <f t="shared" ca="1" si="15"/>
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="983" spans="1:3" x14ac:dyDescent="0.2">
@@ -18021,7 +18021,7 @@
       </c>
       <c r="C983">
         <f t="shared" ca="1" si="15"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="984" spans="1:3" x14ac:dyDescent="0.2">
@@ -18033,7 +18033,7 @@
       </c>
       <c r="C984">
         <f t="shared" ca="1" si="15"/>
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="985" spans="1:3" x14ac:dyDescent="0.2">
@@ -18045,7 +18045,7 @@
       </c>
       <c r="C985">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="986" spans="1:3" x14ac:dyDescent="0.2">
@@ -18057,7 +18057,7 @@
       </c>
       <c r="C986">
         <f t="shared" ca="1" si="15"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="987" spans="1:3" x14ac:dyDescent="0.2">
@@ -18069,7 +18069,7 @@
       </c>
       <c r="C987">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="988" spans="1:3" x14ac:dyDescent="0.2">
@@ -18081,7 +18081,7 @@
       </c>
       <c r="C988">
         <f t="shared" ca="1" si="15"/>
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="989" spans="1:3" x14ac:dyDescent="0.2">
@@ -18093,7 +18093,7 @@
       </c>
       <c r="C989">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="990" spans="1:3" x14ac:dyDescent="0.2">
@@ -18105,7 +18105,7 @@
       </c>
       <c r="C990">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="991" spans="1:3" x14ac:dyDescent="0.2">
@@ -18129,7 +18129,7 @@
       </c>
       <c r="C992">
         <f t="shared" ca="1" si="15"/>
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="993" spans="1:3" x14ac:dyDescent="0.2">
@@ -18141,7 +18141,7 @@
       </c>
       <c r="C993">
         <f t="shared" ca="1" si="15"/>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="994" spans="1:3" x14ac:dyDescent="0.2">
@@ -18153,7 +18153,7 @@
       </c>
       <c r="C994">
         <f t="shared" ca="1" si="15"/>
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="995" spans="1:3" x14ac:dyDescent="0.2">
@@ -18165,7 +18165,7 @@
       </c>
       <c r="C995">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="996" spans="1:3" x14ac:dyDescent="0.2">
@@ -18177,7 +18177,7 @@
       </c>
       <c r="C996">
         <f t="shared" ca="1" si="15"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="997" spans="1:3" x14ac:dyDescent="0.2">
@@ -18189,7 +18189,7 @@
       </c>
       <c r="C997">
         <f t="shared" ca="1" si="15"/>
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="998" spans="1:3" x14ac:dyDescent="0.2">
@@ -18201,7 +18201,7 @@
       </c>
       <c r="C998">
         <f t="shared" ca="1" si="15"/>
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="999" spans="1:3" x14ac:dyDescent="0.2">
@@ -18213,7 +18213,7 @@
       </c>
       <c r="C999">
         <f t="shared" ca="1" si="15"/>
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="1000" spans="1:3" x14ac:dyDescent="0.2">
@@ -18237,7 +18237,7 @@
       </c>
       <c r="C1001">
         <f t="shared" ca="1" si="15"/>
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
